--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/37.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/37.xlsx
@@ -479,13 +479,13 @@
         <v>-0.08241268386738874</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.490057293561946</v>
+        <v>-1.532360171859837</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2108461853849892</v>
+        <v>0.2293139735562437</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140174066649515</v>
+        <v>0.1178771964696363</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.09899041087777603</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.389833908117351</v>
+        <v>-1.428051537722385</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1903821268387384</v>
+        <v>0.2021005328010988</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1166976098808055</v>
+        <v>0.09349744717866289</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1311762763399279</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.39342573098272</v>
+        <v>-1.420238453853242</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1687470205931313</v>
+        <v>0.1952694212215206</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1481585382288239</v>
+        <v>0.1315199021671368</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1687896326007887</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.470317820779671</v>
+        <v>-1.49803688577584</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1854326205469279</v>
+        <v>0.2248841196810225</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1164634003409343</v>
+        <v>0.08391437350559741</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1988962337001683</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.451665226643362</v>
+        <v>-1.497243988896068</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2947255264547659</v>
+        <v>0.3318093135217246</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1376679025887572</v>
+        <v>0.0941360341272181</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.212502942624941</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.342577864003589</v>
+        <v>-1.432972377742388</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3605390170792651</v>
+        <v>0.3860641974011713</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05495168024953913</v>
+        <v>0.02332790308082907</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2095514371119665</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.060970168500889</v>
+        <v>-1.159363181994563</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4258352949698819</v>
+        <v>0.4301419448684</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0009267364652263979</v>
+        <v>-0.03160094314642428</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1932675389756776</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5247882916509946</v>
+        <v>-0.5802105637057372</v>
       </c>
       <c r="F9" t="n">
-        <v>0.391432109277231</v>
+        <v>0.3706954161884737</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01003170833390596</v>
+        <v>-0.02569996059888682</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1623857539191624</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04798516627972281</v>
+        <v>0.02125112317650193</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3743159053256502</v>
+        <v>0.3183196979140878</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05687361630815681</v>
+        <v>-0.06046848877690986</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1101138945256066</v>
       </c>
       <c r="E11" t="n">
-        <v>0.727943644259437</v>
+        <v>0.796101060044679</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1881223707313869</v>
+        <v>0.1266173597674359</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03261219162847256</v>
+        <v>-0.009025949137948411</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.02571204760461292</v>
       </c>
       <c r="E12" t="n">
-        <v>1.451752369293953</v>
+        <v>1.560304831500219</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1984825593528139</v>
+        <v>-0.2605230806709496</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05163066216464595</v>
+        <v>0.09809868876405024</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.09346620817135326</v>
       </c>
       <c r="E13" t="n">
-        <v>2.154957973867919</v>
+        <v>2.302218441903324</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5865348312029378</v>
+        <v>-0.6260711093111004</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1617152451109029</v>
+        <v>0.2222962262495805</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2416881033769353</v>
       </c>
       <c r="E14" t="n">
-        <v>2.773779832972438</v>
+        <v>2.986482349940203</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.128163299696193</v>
+        <v>-1.164865276419507</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3146705425051042</v>
+        <v>0.3931813617781444</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4046958992181179</v>
       </c>
       <c r="E15" t="n">
-        <v>3.462368078607461</v>
+        <v>3.685423389142346</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.737514920452844</v>
+        <v>-1.752158505980889</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4339850550525895</v>
+        <v>0.5370470113267694</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5661783860722286</v>
       </c>
       <c r="E16" t="n">
-        <v>4.077168120769503</v>
+        <v>4.296480958031863</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.278470036518969</v>
+        <v>-2.259860136830032</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6307137494963221</v>
+        <v>0.7183081174081711</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7155461955992761</v>
       </c>
       <c r="E17" t="n">
-        <v>4.669057102630181</v>
+        <v>4.906217438735543</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.876192909652743</v>
+        <v>-2.808617968113795</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8247758707413122</v>
+        <v>0.9291217100400466</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8513926394503922</v>
       </c>
       <c r="E18" t="n">
-        <v>5.051438332027902</v>
+        <v>5.27001072558869</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.460823835460119</v>
+        <v>-3.35450581765312</v>
       </c>
       <c r="G18" t="n">
-        <v>1.016284254112758</v>
+        <v>1.120972258911148</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9740495135496214</v>
       </c>
       <c r="E19" t="n">
-        <v>5.382394709486286</v>
+        <v>5.584879835277167</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.014904749450201</v>
+        <v>-3.85919413539879</v>
       </c>
       <c r="G19" t="n">
-        <v>1.268571842842825</v>
+        <v>1.358010000960483</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.080991904208968</v>
       </c>
       <c r="E20" t="n">
-        <v>5.745337766916046</v>
+        <v>5.93595383633741</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.559644728275885</v>
+        <v>-4.362753794932138</v>
       </c>
       <c r="G20" t="n">
-        <v>1.450462387062631</v>
+        <v>1.530853591782085</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.170214466016242</v>
       </c>
       <c r="E21" t="n">
-        <v>6.010227536669081</v>
+        <v>6.150212870872235</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.905119657523581</v>
+        <v>-4.672474564188185</v>
       </c>
       <c r="G21" t="n">
-        <v>1.581866747264616</v>
+        <v>1.672572930469234</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.239677729844936</v>
       </c>
       <c r="E22" t="n">
-        <v>6.16486194568637</v>
+        <v>6.285873867477245</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.186566333967619</v>
+        <v>-4.952158264916083</v>
       </c>
       <c r="G22" t="n">
-        <v>1.786084047777461</v>
+        <v>1.871671776662809</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.290323472459183</v>
       </c>
       <c r="E23" t="n">
-        <v>6.290142092373128</v>
+        <v>6.360848976587177</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.414847444860882</v>
+        <v>-5.208670469213645</v>
       </c>
       <c r="G23" t="n">
-        <v>1.906756243751388</v>
+        <v>1.976745861249581</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.321812661794053</v>
       </c>
       <c r="E24" t="n">
-        <v>6.424274627762208</v>
+        <v>6.452809156703188</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.519985571118712</v>
+        <v>-5.32570997763686</v>
       </c>
       <c r="G24" t="n">
-        <v>1.98518045428833</v>
+        <v>2.066882378542116</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.334156618084685</v>
       </c>
       <c r="E25" t="n">
-        <v>6.457600693539722</v>
+        <v>6.462559348641683</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.526290321154256</v>
+        <v>-5.346214290947777</v>
       </c>
       <c r="G25" t="n">
-        <v>2.047521666500102</v>
+        <v>2.126107506016383</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.327479755945541</v>
       </c>
       <c r="E26" t="n">
-        <v>6.512245926652287</v>
+        <v>6.520056570838722</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.51227190431988</v>
+        <v>-5.345160652978694</v>
       </c>
       <c r="G26" t="n">
-        <v>2.06469093355056</v>
+        <v>2.150614118808119</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.303153006931366</v>
       </c>
       <c r="E27" t="n">
-        <v>6.424574708735168</v>
+        <v>6.40908394338712</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.502063356992809</v>
+        <v>-5.337078594091106</v>
       </c>
       <c r="G27" t="n">
-        <v>2.067715530186554</v>
+        <v>2.159944685321011</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.263967973491559</v>
       </c>
       <c r="E28" t="n">
-        <v>6.361217368675933</v>
+        <v>6.321800635020413</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.393178792978054</v>
+        <v>-5.254846953729563</v>
       </c>
       <c r="G28" t="n">
-        <v>2.035431208924925</v>
+        <v>2.12176792040132</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.211000019414571</v>
       </c>
       <c r="E29" t="n">
-        <v>6.285768961120845</v>
+        <v>6.231420149457179</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.233428979244879</v>
+        <v>-5.097766152877838</v>
       </c>
       <c r="G29" t="n">
-        <v>1.955584663369807</v>
+        <v>2.042017132392451</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.147483452051156</v>
       </c>
       <c r="E30" t="n">
-        <v>6.170587880999681</v>
+        <v>6.080150062892833</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.040825788258671</v>
+        <v>-4.899069549370578</v>
       </c>
       <c r="G30" t="n">
-        <v>1.919735965673263</v>
+        <v>1.990963722145255</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.076028133714257</v>
       </c>
       <c r="E31" t="n">
-        <v>6.043973227872198</v>
+        <v>5.916094819102494</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.89386662103758</v>
+        <v>-4.764851930047093</v>
       </c>
       <c r="G31" t="n">
-        <v>1.809037192605521</v>
+        <v>1.882783921472482</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.001781191414715</v>
       </c>
       <c r="E32" t="n">
-        <v>5.876647589413136</v>
+        <v>5.731612112006508</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.6450287436552</v>
+        <v>-4.516082058820171</v>
       </c>
       <c r="G32" t="n">
-        <v>1.761320048460137</v>
+        <v>1.812012995587375</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9272437826598493</v>
       </c>
       <c r="E33" t="n">
-        <v>5.629083226403806</v>
+        <v>5.467877532015234</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.484586669953916</v>
+        <v>-4.363631470785978</v>
       </c>
       <c r="G33" t="n">
-        <v>1.676058627136849</v>
+        <v>1.717640579194824</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8549576837285466</v>
       </c>
       <c r="E34" t="n">
-        <v>5.413554337019992</v>
+        <v>5.254036903064658</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.27871160504167</v>
+        <v>-4.150880160164074</v>
       </c>
       <c r="G34" t="n">
-        <v>1.5335890860173</v>
+        <v>1.568575355876922</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7862319601732394</v>
       </c>
       <c r="E35" t="n">
-        <v>5.172777171301514</v>
+        <v>4.996007521083685</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.142328157395052</v>
+        <v>-4.009829294538641</v>
       </c>
       <c r="G35" t="n">
-        <v>1.486420260560313</v>
+        <v>1.504604435616879</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7214417920018944</v>
       </c>
       <c r="E36" t="n">
-        <v>4.917058168844063</v>
+        <v>4.706468417100554</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.972507333447413</v>
+        <v>-3.849849540710333</v>
       </c>
       <c r="G36" t="n">
-        <v>1.444374158867332</v>
+        <v>1.462266181919736</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6603474469247446</v>
       </c>
       <c r="E37" t="n">
-        <v>4.599015031953788</v>
+        <v>4.391660299479751</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.849778179991154</v>
+        <v>-3.708601060785634</v>
       </c>
       <c r="G37" t="n">
-        <v>1.359639099088077</v>
+        <v>1.370360284743955</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6011009421976816</v>
       </c>
       <c r="E38" t="n">
-        <v>4.317803784890975</v>
+        <v>4.109690311095063</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.764939128736514</v>
+        <v>-3.613705637412772</v>
       </c>
       <c r="G38" t="n">
-        <v>1.268774336507505</v>
+        <v>1.264029153642405</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5431039469448738</v>
       </c>
       <c r="E39" t="n">
-        <v>4.049608245069965</v>
+        <v>3.846329002557959</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.740801822914548</v>
+        <v>-3.559026553702647</v>
       </c>
       <c r="G39" t="n">
-        <v>1.201520823165204</v>
+        <v>1.175538812256413</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.48473766804809</v>
       </c>
       <c r="E40" t="n">
-        <v>3.733030137645239</v>
+        <v>3.509419799294513</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.649102383887846</v>
+        <v>-3.477108412568954</v>
       </c>
       <c r="G40" t="n">
-        <v>1.114395484253774</v>
+        <v>1.091245335047125</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4269707446502416</v>
       </c>
       <c r="E41" t="n">
-        <v>3.528189498200758</v>
+        <v>3.294077545637783</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.571152691637414</v>
+        <v>-3.388624475350068</v>
       </c>
       <c r="G41" t="n">
-        <v>1.064577773297669</v>
+        <v>1.030432584051283</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3698109963333491</v>
       </c>
       <c r="E42" t="n">
-        <v>3.234935977296231</v>
+        <v>3.001748664479206</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.520267314536662</v>
+        <v>-3.307173533454764</v>
       </c>
       <c r="G42" t="n">
-        <v>1.041042764143992</v>
+        <v>1.013069362225619</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3139421596451551</v>
       </c>
       <c r="E43" t="n">
-        <v>2.92193932408537</v>
+        <v>2.667406007423517</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.430809333997009</v>
+        <v>-3.213872442730921</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9636816453466219</v>
+        <v>0.922957241760154</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2591771844214497</v>
       </c>
       <c r="E44" t="n">
-        <v>2.701582302624417</v>
+        <v>2.440366695028112</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.38734120224619</v>
+        <v>-3.177645594214794</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9507501071582095</v>
+        <v>0.9081239709016413</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2057651542366164</v>
       </c>
       <c r="E45" t="n">
-        <v>2.435260439122378</v>
+        <v>2.180879602629711</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.291801092718006</v>
+        <v>-3.088662131961651</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8744947745477836</v>
+        <v>0.8387369550320752</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1544572626758628</v>
       </c>
       <c r="E46" t="n">
-        <v>2.274835443200043</v>
+        <v>2.033930194139449</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.218003740434874</v>
+        <v>-3.000767378116503</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8412900829849426</v>
+        <v>0.7991744503348124</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1055886075400377</v>
       </c>
       <c r="E47" t="n">
-        <v>2.058609414482705</v>
+        <v>1.814362410034208</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.12301316943644</v>
+        <v>-2.924411408594414</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7565672216192233</v>
+        <v>0.7247549789613982</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.06011705302169502</v>
       </c>
       <c r="E48" t="n">
-        <v>1.91958470534543</v>
+        <v>1.685504468657646</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.085271887879947</v>
+        <v>-2.857440898446124</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6774477015107885</v>
+        <v>0.6552630567354314</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.0179582779039209</v>
       </c>
       <c r="E49" t="n">
-        <v>1.723314061329935</v>
+        <v>1.503380934739322</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.02668260271119</v>
+        <v>-2.819668510935117</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5915909976069946</v>
+        <v>0.5730780753056609</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.02097150254190844</v>
       </c>
       <c r="E50" t="n">
-        <v>1.624727702981732</v>
+        <v>1.409420214803577</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.944938898891047</v>
+        <v>-2.736286865137566</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5608436764507716</v>
+        <v>0.5631064821615068</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.05719492969434648</v>
       </c>
       <c r="E51" t="n">
-        <v>1.511280017423887</v>
+        <v>1.320823137299154</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.883547333172971</v>
+        <v>-2.670861284063479</v>
       </c>
       <c r="G51" t="n">
-        <v>0.478418996195039</v>
+        <v>0.4714128373812341</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.09111143857909496</v>
       </c>
       <c r="E52" t="n">
-        <v>1.446929116582229</v>
+        <v>1.268239436073997</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.777015538168771</v>
+        <v>-2.586133543332346</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3965511735171774</v>
+        <v>0.3947927722061128</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1234893676833726</v>
       </c>
       <c r="E53" t="n">
-        <v>1.365762702682628</v>
+        <v>1.231056841857405</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.73971278957886</v>
+        <v>-2.546497848153873</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3955228472561802</v>
+        <v>0.3863661081361616</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1553059806777009</v>
       </c>
       <c r="E54" t="n">
-        <v>1.252648643734963</v>
+        <v>1.15160918442488</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.689835916317111</v>
+        <v>-2.488419371551893</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3324582691217845</v>
+        <v>0.3319581341668511</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.187280632155738</v>
       </c>
       <c r="E55" t="n">
-        <v>1.200341236576373</v>
+        <v>1.126704293431227</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.661914357656261</v>
+        <v>-2.4674868939259</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3007027490868969</v>
+        <v>0.3024172361092357</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2197259379851793</v>
       </c>
       <c r="E56" t="n">
-        <v>1.170780821057102</v>
+        <v>1.11271759247204</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.63070532654774</v>
+        <v>-2.435711856429356</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2664130086401211</v>
+        <v>0.257167831021974</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2536209169282477</v>
       </c>
       <c r="E57" t="n">
-        <v>1.03678368805826</v>
+        <v>1.003525323475865</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.611614809365526</v>
+        <v>-2.402351025173267</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2178901592807526</v>
+        <v>0.2225993568259243</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2893692373820237</v>
       </c>
       <c r="E58" t="n">
-        <v>1.018281744329108</v>
+        <v>1.008659635732731</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.639252144991011</v>
+        <v>-2.427512082851155</v>
       </c>
       <c r="G58" t="n">
-        <v>0.201092943843111</v>
+        <v>0.2137725847920264</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3276273294413137</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9586644378596924</v>
+        <v>0.9867970290746966</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.578289353508689</v>
+        <v>-2.362898916118496</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1990369012417934</v>
+        <v>0.2079777284422431</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3676628930827398</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9240166739756654</v>
+        <v>0.98077772191587</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.596156979734023</v>
+        <v>-2.380009630783986</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1608235410814973</v>
+        <v>0.188230936611848</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.408974869200245</v>
       </c>
       <c r="E61" t="n">
-        <v>0.988831724452328</v>
+        <v>1.08508879573603</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.61737002087132</v>
+        <v>-2.404146021724937</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1699253873406085</v>
+        <v>0.205736269955194</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4502577225870156</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9752664786807745</v>
+        <v>1.106232305916178</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.60170359836837</v>
+        <v>-2.393442523768685</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1246027917721371</v>
+        <v>0.1692038511800156</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4900232239305959</v>
       </c>
       <c r="E63" t="n">
-        <v>1.001493067780941</v>
+        <v>1.165695912375053</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.60495203589273</v>
+        <v>-2.403814834797463</v>
       </c>
       <c r="G63" t="n">
-        <v>0.09383290355087433</v>
+        <v>0.1354410821979501</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5271393280749591</v>
       </c>
       <c r="E64" t="n">
-        <v>1.043180536115994</v>
+        <v>1.248804923630097</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.676678097557625</v>
+        <v>-2.467367959393933</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1248132144056152</v>
+        <v>0.1607729176653272</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5600227684165818</v>
       </c>
       <c r="E65" t="n">
-        <v>1.060358342055926</v>
+        <v>1.290743069363294</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.804047222562245</v>
+        <v>-2.604739173576545</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07224598103873031</v>
+        <v>0.1241099758653247</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5883213984421684</v>
       </c>
       <c r="E66" t="n">
-        <v>1.077536147995859</v>
+        <v>1.329626122426659</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.876742448182493</v>
+        <v>-2.682716922178108</v>
       </c>
       <c r="G66" t="n">
-        <v>0.06518126983995755</v>
+        <v>0.1292235508191804</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6110138250229818</v>
       </c>
       <c r="E67" t="n">
-        <v>1.075031813697131</v>
+        <v>1.372165040026452</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.907684334034598</v>
+        <v>-2.730621311971253</v>
       </c>
       <c r="G67" t="n">
-        <v>0.02186714306001747</v>
+        <v>0.08852293413910572</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6288901484379409</v>
       </c>
       <c r="E68" t="n">
-        <v>1.098169764490246</v>
+        <v>1.405454510563361</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.990917769107699</v>
+        <v>-2.825669520473641</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.03089648476478027</v>
+        <v>0.04919341914036071</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6422787558284846</v>
       </c>
       <c r="E69" t="n">
-        <v>1.076812172152559</v>
+        <v>1.397461500094578</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.020413837995573</v>
+        <v>-2.868565851590008</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.01405169551435241</v>
+        <v>0.08051650541543398</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6525405879862239</v>
       </c>
       <c r="E70" t="n">
-        <v>1.065420683672935</v>
+        <v>1.408596821889967</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.081146079462084</v>
+        <v>-2.909850772278407</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.01319231728081439</v>
+        <v>0.07952599423639513</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6603298072924237</v>
       </c>
       <c r="E71" t="n">
-        <v>1.04627588355049</v>
+        <v>1.398242808481492</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.135412551834389</v>
+        <v>-2.976667582416157</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.03059640379182023</v>
+        <v>0.07489242685514014</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6661908674694407</v>
       </c>
       <c r="E72" t="n">
-        <v>1.025971014300871</v>
+        <v>1.385653435792735</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.202099143907653</v>
+        <v>-3.050263050955285</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.09322366880098756</v>
+        <v>0.03051459841495144</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6703828212587155</v>
       </c>
       <c r="E73" t="n">
-        <v>1.050850288626101</v>
+        <v>1.427397016830049</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.258223434661333</v>
+        <v>-3.109294528614684</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1618391350144673</v>
+        <v>-0.02988340652070175</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6713583523921284</v>
       </c>
       <c r="E74" t="n">
-        <v>1.01439898930093</v>
+        <v>1.408172317098951</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.300538816333098</v>
+        <v>-3.156651514600449</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.1923839625060101</v>
+        <v>-0.05214246161862213</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6677231911683554</v>
       </c>
       <c r="E75" t="n">
-        <v>1.017255857750818</v>
+        <v>1.390046084506675</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.298381831859779</v>
+        <v>-3.165609724540186</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.1845989349879979</v>
+        <v>-0.03818198724853582</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.65712634299307</v>
       </c>
       <c r="E76" t="n">
-        <v>1.018244539167826</v>
+        <v>1.40259642227212</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.351441576173138</v>
+        <v>-3.228096402833363</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2037022605044238</v>
+        <v>-0.05136847227982884</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6392129916891408</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9162664119362278</v>
+        <v>1.291420081314484</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.378944424289399</v>
+        <v>-3.249803479718826</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2277441137404787</v>
+        <v>-0.0629209798181138</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.61354683549418</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9519687286703522</v>
+        <v>1.330968557836181</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.356585952121169</v>
+        <v>-3.236341310541643</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2026678350366591</v>
+        <v>-0.03434924571585103</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5804578098375112</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9537478672844263</v>
+        <v>1.346033598551858</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.316950256942697</v>
+        <v>-3.196004511545249</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.162101400905469</v>
+        <v>0.002096564323229173</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5400741321686239</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9974517333768084</v>
+        <v>1.386628089034179</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.278140699320879</v>
+        <v>-3.149544413914642</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1746175831130159</v>
+        <v>-0.004357006357442028</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4928655236769615</v>
       </c>
       <c r="E81" t="n">
-        <v>1.147343399211704</v>
+        <v>1.517713460722225</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.16473113380533</v>
+        <v>-3.038204004294961</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1978372632768145</v>
+        <v>-0.02691858211102944</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4401191105261235</v>
       </c>
       <c r="E82" t="n">
-        <v>1.228603740895525</v>
+        <v>1.591898722555768</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.037121700054072</v>
+        <v>-2.921941229853585</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1644922899583214</v>
+        <v>-0.004980955209755292</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3825160917751833</v>
       </c>
       <c r="E83" t="n">
-        <v>1.40929579098552</v>
+        <v>1.768875135883015</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.891742837306435</v>
+        <v>-2.785989301085765</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.126991317148467</v>
+        <v>0.03940358235787763</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3213428277896022</v>
       </c>
       <c r="E84" t="n">
-        <v>1.649050119729091</v>
+        <v>1.970647874323454</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.793967673458307</v>
+        <v>-2.703179760883005</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1649296030835498</v>
+        <v>0.003974510086936444</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2579612766764041</v>
       </c>
       <c r="E85" t="n">
-        <v>1.837602827501016</v>
+        <v>2.126447231833331</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.583384020921565</v>
+        <v>-2.489065887469246</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1170032561460408</v>
+        <v>0.04877562347678829</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1944809661743728</v>
       </c>
       <c r="E86" t="n">
-        <v>2.047825406997123</v>
+        <v>2.284969885164889</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.381489298345777</v>
+        <v>-2.305321184392126</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1190836955744285</v>
+        <v>0.05420147781713901</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1322656398779836</v>
       </c>
       <c r="E87" t="n">
-        <v>2.190387046138861</v>
+        <v>2.401073165349295</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.112228227102488</v>
+        <v>-2.041939748472688</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1141530968235972</v>
+        <v>0.07107371349802054</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.07392851250562853</v>
       </c>
       <c r="E88" t="n">
-        <v>2.333077988464069</v>
+        <v>2.49789807278305</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.799080313563793</v>
+        <v>-1.740382767474914</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.08185718706911076</v>
+        <v>0.08385277151724585</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.02174488556839714</v>
       </c>
       <c r="E89" t="n">
-        <v>2.392151245689825</v>
+        <v>2.535957123012129</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.587513468896134</v>
+        <v>-1.542328715400608</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1181462474942667</v>
+        <v>0.03312688867346337</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.02214435198438282</v>
       </c>
       <c r="E90" t="n">
-        <v>2.486304700559423</v>
+        <v>2.599729209131552</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.378120381520405</v>
+        <v>-1.321508764146003</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1330441699445148</v>
+        <v>0.03152218737293923</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.05606470841936562</v>
       </c>
       <c r="E91" t="n">
-        <v>2.495799945655036</v>
+        <v>2.608899976427136</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.03627265053733</v>
+        <v>-0.9644831571220533</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09764376394538074</v>
+        <v>0.03993787287070893</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.07822652583079472</v>
       </c>
       <c r="E92" t="n">
-        <v>2.421159073075962</v>
+        <v>2.540204610605002</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8601373178233189</v>
+        <v>-0.7597346156997605</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1014807749228028</v>
+        <v>0.02690142832589594</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.08678385972697457</v>
       </c>
       <c r="E93" t="n">
-        <v>2.351539067507879</v>
+        <v>2.469855139907528</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.607114164757094</v>
+        <v>-0.4504865349681927</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1409780181076535</v>
+        <v>-0.04849818557505248</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08136075608174388</v>
       </c>
       <c r="E94" t="n">
-        <v>2.278486428371057</v>
+        <v>2.420676015899978</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.3593009541116511</v>
+        <v>-0.1885475614492648</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.148750237291454</v>
+        <v>-0.08956292489914572</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.06369759602649999</v>
       </c>
       <c r="E95" t="n">
-        <v>2.125126143647495</v>
+        <v>2.275111127345933</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1563931532917839</v>
+        <v>0.02013069889331575</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1714917396446821</v>
+        <v>-0.1357406292564179</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.03836964958488912</v>
       </c>
       <c r="E96" t="n">
-        <v>1.971350502943068</v>
+        <v>2.120634077863246</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.006227023152351574</v>
+        <v>0.1853765078446671</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2007203583158025</v>
+        <v>-0.1873563863675758</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.01053951874874814</v>
       </c>
       <c r="E97" t="n">
-        <v>1.815903679584351</v>
+        <v>1.950791906691921</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1451461400063652</v>
+        <v>0.3152883921506499</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2018840869670378</v>
+        <v>-0.2036449279608095</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.01429734681491594</v>
       </c>
       <c r="E98" t="n">
-        <v>1.63517320449172</v>
+        <v>1.748847170620639</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2547318078390423</v>
+        <v>0.4123499488069824</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3018531354894283</v>
+        <v>-0.3315904280049566</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.0323795190477933</v>
       </c>
       <c r="E99" t="n">
-        <v>1.507464353670151</v>
+        <v>1.589532840250662</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3397437716055401</v>
+        <v>0.4635204638241142</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2830444016598717</v>
+        <v>-0.3200110839568947</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.04230571065109643</v>
       </c>
       <c r="E100" t="n">
-        <v>1.351794909264421</v>
+        <v>1.416211681539167</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3832274563336161</v>
+        <v>0.4910785097616217</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3605378732440961</v>
+        <v>-0.4092205218207726</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.04508489665538064</v>
       </c>
       <c r="E101" t="n">
-        <v>1.27170500535928</v>
+        <v>1.287788003684449</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4284445356250101</v>
+        <v>0.50025781594668</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3687126400745504</v>
+        <v>-0.4112161822750923</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.04515298938569837</v>
       </c>
       <c r="E102" t="n">
-        <v>1.123540634880934</v>
+        <v>1.088462266999123</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4231126090688786</v>
+        <v>0.4588917758082732</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.408890554734652</v>
+        <v>-0.4481176030597033</v>
       </c>
     </row>
   </sheetData>
